--- a/medicine/Médecine vétérinaire/Phospal/Phospal.xlsx
+++ b/medicine/Médecine vétérinaire/Phospal/Phospal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phospal est un engrais phosphaté fabriqué à partir de minerais alumino-calciques et alumino-siliciques extraits principalement de mines situées au Sénégal (région de Thiès). Ces minerais sont rendus plus solubles par un traitement thermique. La rapidité d'action du phospal est équivalente à celle des scories (lente).
-« Phospal » est une marque française déposée le 4 décembre 1989, pour une durée de 10 ans, par la société Rhône-Poulenc Chimie[1]. 
+« Phospal » est une marque française déposée le 4 décembre 1989, pour une durée de 10 ans, par la société Rhône-Poulenc Chimie. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un produit non hygroscopique, de bonne tenue dans les mélanges d'engrais. Il renferme des oligo-éléments : zinc, cuivre, molybdène et manganèse principalement.
-Le phospal contient au minimum 30 % de phosphore total et possède un équivalent base E.B. : -1[réf. nécessaire] ; au moins 75 % du phosphore qu'il contient est soluble dans le citrate d'ammonium[2].
+Le phospal contient au minimum 30 % de phosphore total et possède un équivalent base E.B. : -1[réf. nécessaire] ; au moins 75 % du phosphore qu'il contient est soluble dans le citrate d'ammonium.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phospal peut être utilisé soit comme engrais phosphaté simple pour la fertilisation des cultures, soit pour la fabrication d'engrais composés.
-Il peut être utilisé dans des sols neutres ou moyennement acides ou alcalins (pH≤8) ; il y a risque de toxicité par l'aluminium lorsque le pH est très bas[3].
-Le phospal peut également être utilisé comme condiment minéral phosphaté en alimentation animale[4].
+Il peut être utilisé dans des sols neutres ou moyennement acides ou alcalins (pH≤8) ; il y a risque de toxicité par l'aluminium lorsque le pH est très bas.
+Le phospal peut également être utilisé comme condiment minéral phosphaté en alimentation animale.
 </t>
         </is>
       </c>
